--- a/echecker/users.xlsx
+++ b/echecker/users.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\echecker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
@@ -16,37 +21,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>a</t>
+    <t>user</t>
   </si>
   <si>
-    <t>b</t>
+    <t>firstname</t>
   </si>
   <si>
-    <t>c</t>
+    <t>middlename</t>
   </si>
   <si>
-    <t>d</t>
+    <t>lastname</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>professor</t>
-  </si>
-  <si>
-    <t>student</t>
+    <t>CITE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +79,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -129,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,9 +165,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,6 +200,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,71 +376,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -443,24 +421,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
